--- a/biology/Biochimie/Terlipressine/Terlipressine.xlsx
+++ b/biology/Biochimie/Terlipressine/Terlipressine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La terlipressine est un analogue de la vasopressine utilisé comme médicament vasoactif dans la gestion de l'hypotension. Elle a un effet vasoconstricteur. Elle a prouvé son efficacité lorsque la noradrénaline ne donne pas de résultat.
@@ -512,10 +524,12 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se fixe sur les récepteurs 1 de la vasopressine, avec une plus forte affinité pour ces derniers que pour les récepteurs 2 de la vasopressine. Ses métabolites peuvent également se fixer sur les premiers[2].
-En cas de cirrhose, elle augmente la pression artérielle et le débit sanguin hépatique, sans modifier le débit splanchnique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se fixe sur les récepteurs 1 de la vasopressine, avec une plus forte affinité pour ces derniers que pour les récepteurs 2 de la vasopressine. Ses métabolites peuvent également se fixer sur les premiers.
+En cas de cirrhose, elle augmente la pression artérielle et le débit sanguin hépatique, sans modifier le débit splanchnique.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est utilisée dans les hémoptysies abondantes, dans le choc septique résistant à la noradrénaline.
-Dans le syndrome hépatorénal, elle permet l'amélioration de la fonction rénale[4].
-Elle est utilisée en outre dans le saignement des varices œsophagiennes[5].
+Dans le syndrome hépatorénal, elle permet l'amélioration de la fonction rénale.
+Elle est utilisée en outre dans le saignement des varices œsophagiennes.
 Elle est commercialisée en France sous le nom de Glypressine. Elle est réservée à l'usage hospitalier.
 </t>
         </is>
@@ -578,9 +594,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle altère la fonction cardiaque (fraction d'éjection)[6] et peut provoquer des insuffisances respiratoires, parfois graves[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle altère la fonction cardiaque (fraction d'éjection) et peut provoquer des insuffisances respiratoires, parfois graves.
 </t>
         </is>
       </c>
